--- a/17 - Análises de Eventos/Análise - Obter Doações + Tratar doações recebidas.xlsx
+++ b/17 - Análises de Eventos/Análise - Obter Doações + Tratar doações recebidas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t xml:space="preserve">Capacidades </t>
   </si>
@@ -64,7 +64,7 @@
     <t>x(1)</t>
   </si>
   <si>
-    <t>Associado verifica necessidade de reparo em doação</t>
+    <t>Associado realiza reparo em doação</t>
   </si>
   <si>
     <t>x(2)</t>
@@ -76,7 +76,7 @@
     <t>Associado não busca doação</t>
   </si>
   <si>
-    <t>Associado realiza reparo em doação</t>
+    <t>Associado não realiza reparo em doação</t>
   </si>
   <si>
     <t>Tratar doações recebidas</t>
@@ -88,22 +88,25 @@
     <t>Associado separa doações recebidas</t>
   </si>
   <si>
+    <t>x(6)</t>
+  </si>
+  <si>
+    <t>Associado anota doações recebidas</t>
+  </si>
+  <si>
+    <t>x(7)</t>
+  </si>
+  <si>
+    <t>Associado aloca doações recebidas</t>
+  </si>
+  <si>
+    <t>x(8)</t>
+  </si>
+  <si>
+    <t>Associado descarta doações recebidas</t>
+  </si>
+  <si>
     <t>x(5)</t>
-  </si>
-  <si>
-    <t>Associado anota doações recebidas</t>
-  </si>
-  <si>
-    <t>x(6)</t>
-  </si>
-  <si>
-    <t>Associado aloca doações recebidas</t>
-  </si>
-  <si>
-    <t>x(7)</t>
-  </si>
-  <si>
-    <t>Associado descarta doações recebidas</t>
   </si>
 </sst>
 </file>
@@ -349,7 +352,7 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -359,7 +362,6 @@
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -407,6 +409,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -715,11 +718,11 @@
       <c r="D4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="25"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="26"/>
@@ -733,27 +736,26 @@
       <c r="D5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="18">
         <v>4.0</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="20"/>
       <c r="G6" s="19"/>
       <c r="H6" s="20"/>
@@ -772,37 +774,37 @@
       <c r="D7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="19"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="26" t="s">
+      <c r="I7" s="21" t="s">
         <v>14</v>
       </c>
+      <c r="J7" s="26"/>
       <c r="K7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="18">
         <v>6.0</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
       <c r="K8" s="11"/>
     </row>
     <row r="9">
@@ -811,17 +813,17 @@
       <c r="C9" s="18">
         <v>7.0</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="11"/>
     </row>
     <row r="10">
@@ -830,17 +832,17 @@
       <c r="C10" s="18">
         <v>8.0</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="39"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="11"/>
     </row>
     <row r="11">
@@ -849,63 +851,63 @@
       <c r="C11" s="18">
         <v>9.0</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="40"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="12"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="28">
         <v>10.0</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="35" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="20"/>
-      <c r="J12" s="42"/>
+      <c r="J12" s="41"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="16"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="47"/>
       <c r="K13" s="47"/>
     </row>
     <row r="14">
       <c r="A14" s="16"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="47"/>
       <c r="K14" s="47"/>
     </row>
